--- a/data/trans_dic/P2A_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P2A_R-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.5666325945688903</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.5998878725243676</v>
+        <v>0.5998878725243677</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.5219479138702625</v>
@@ -697,7 +697,7 @@
         <v>0.6271030843884117</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.6337154369218277</v>
+        <v>0.633715436921828</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3737751651237597</v>
+        <v>0.3626424544086294</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5488463903359194</v>
+        <v>0.5485334916320392</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.5027772561021597</v>
+        <v>0.5110607871679402</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.543356809004802</v>
+        <v>0.541417613136262</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.4581756980785948</v>
+        <v>0.4546858532975044</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.7268830404798197</v>
+        <v>0.7288877252885202</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.6333490701021941</v>
+        <v>0.632809708160988</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.6194721335469358</v>
+        <v>0.6250801796863517</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.4309024543270299</v>
+        <v>0.4295004181580051</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.6577495658208697</v>
+        <v>0.6557917313719536</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.582686180899663</v>
+        <v>0.584527181072454</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.5954420037046958</v>
+        <v>0.5931935674151158</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4922481619382068</v>
+        <v>0.4874653964246101</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6646878378096466</v>
+        <v>0.6685520085973411</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6232321974162419</v>
+        <v>0.6317760881112602</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.6539130163646125</v>
+        <v>0.6542233859887371</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5866080882135875</v>
+        <v>0.5862865051363864</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.8330492638476874</v>
+        <v>0.8291336144024481</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.7370187303713687</v>
+        <v>0.7392663805792333</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.7110699288837404</v>
+        <v>0.711826319838907</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.5245004093691542</v>
+        <v>0.5147642529319969</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.735237880415797</v>
+        <v>0.7332017437262337</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.666847700725049</v>
+        <v>0.6642299354047979</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.6680654767019579</v>
+        <v>0.6689136759830684</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.7108510708859478</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.4510700256121323</v>
+        <v>0.4510700256121322</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.5625194740997335</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4200658916574891</v>
+        <v>0.4235774487317133</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4863091109083767</v>
+        <v>0.4818413999018408</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5330349604831244</v>
+        <v>0.5268561237649431</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.344281171568789</v>
+        <v>0.3487987730054766</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.6100050443549475</v>
+        <v>0.6101538278978069</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.6588912801612526</v>
+        <v>0.6595545312092678</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.6709060785308181</v>
+        <v>0.6687451374801504</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.4124499972458943</v>
+        <v>0.4137945451000924</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.5312613066236564</v>
+        <v>0.5316798538919988</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.5827891518843138</v>
+        <v>0.5854373568465785</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.613366136404691</v>
+        <v>0.6144161219936503</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.3931857911770953</v>
+        <v>0.3933712281434669</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.5163678752085035</v>
+        <v>0.5172903707131405</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5748789149473309</v>
+        <v>0.5736408227943586</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.619589849898577</v>
+        <v>0.6187056977353286</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4503683424779533</v>
+        <v>0.4588799192903452</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.6978312306135663</v>
+        <v>0.6947327801135761</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7437675846252195</v>
+        <v>0.7448416883716775</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.7509210615282429</v>
+        <v>0.752111382351086</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.4907830093728262</v>
+        <v>0.490852121406586</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.5921881973692422</v>
+        <v>0.5953677471370895</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.6461447774694531</v>
+        <v>0.6457596633134147</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.6755699686744776</v>
+        <v>0.6744234719092563</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.4557381839189612</v>
+        <v>0.4560154496714803</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.6162197877007259</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.5082045838009378</v>
+        <v>0.5082045838009379</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.5667478011937495</v>
@@ -969,7 +969,7 @@
         <v>0.5730982036473176</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.4962641194741764</v>
+        <v>0.4962641194741763</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3933914850123917</v>
+        <v>0.3955734214024715</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5374571141953242</v>
+        <v>0.5417261276824537</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4767851324794443</v>
+        <v>0.4746595028817699</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4296296374548486</v>
+        <v>0.4378185561539398</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.6289427258467839</v>
+        <v>0.6314036110935537</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.6316228952768178</v>
+        <v>0.6351032171966985</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.5602964176454143</v>
+        <v>0.5606476236475079</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.4666271208016837</v>
+        <v>0.4634697366215067</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.524502355294411</v>
+        <v>0.532250337028374</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.6079046884509736</v>
+        <v>0.6031256830137834</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.5348643399544345</v>
+        <v>0.5362138142528992</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.4650761867848885</v>
+        <v>0.4606177917077099</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5058411104105875</v>
+        <v>0.5062358581534484</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6449198125331642</v>
+        <v>0.6517439497888408</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.583868135168536</v>
+        <v>0.5786241953569665</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.536288263071391</v>
+        <v>0.5400352271110729</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7329814642120626</v>
+        <v>0.7353158046559976</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.7334684960525744</v>
+        <v>0.7389565337680126</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.6693293263377902</v>
+        <v>0.6634683683088864</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.5516880854531897</v>
+        <v>0.5507297869178563</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.6025606599619788</v>
+        <v>0.6060223903902318</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.6793283733073443</v>
+        <v>0.6828801566717282</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.6108179485774893</v>
+        <v>0.6111801805113902</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.5332910465025789</v>
+        <v>0.5294959514605023</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4696319645574367</v>
+        <v>0.462923659363961</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5316156730373286</v>
+        <v>0.5412516605431402</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5303169060515996</v>
+        <v>0.5322079634772082</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3816192797697794</v>
+        <v>0.3846839415439252</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.6495043361673435</v>
+        <v>0.6479636440093322</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.6588423812944879</v>
+        <v>0.665832719134441</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.6603303327596797</v>
+        <v>0.6636785489744135</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.4684278889956207</v>
+        <v>0.4648257248117076</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.5714529758804596</v>
+        <v>0.573620493720426</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.6132418802437942</v>
+        <v>0.6159701465900475</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.6108176020198746</v>
+        <v>0.6109460378624886</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.4454110656236</v>
+        <v>0.439177244563839</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5743862184204429</v>
+        <v>0.5668042290567339</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6401967814684898</v>
+        <v>0.6397019883798745</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6400500101440316</v>
+        <v>0.6339422009812077</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5126550803518357</v>
+        <v>0.5109152345437266</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7442930922555188</v>
+        <v>0.7402274535261194</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.7533284594809413</v>
+        <v>0.7551379381659734</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.7565085812604074</v>
+        <v>0.7560247110319962</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.5572755123955339</v>
+        <v>0.5613812575600413</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.6438875680804811</v>
+        <v>0.6455739217039764</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.6854477395067632</v>
+        <v>0.6850219441192773</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.6828062394881381</v>
+        <v>0.6805054767614988</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.5206387837895993</v>
+        <v>0.5201287472726173</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4318152661770276</v>
+        <v>0.4302970603639882</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4908644545202784</v>
+        <v>0.4901363058978625</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4572273814122872</v>
+        <v>0.4597696630311535</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.08974384535898526</v>
+        <v>0.09266129507824869</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.5887730869507107</v>
+        <v>0.590949516472398</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.769989726343797</v>
+        <v>0.7641891605894851</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.5725223373178896</v>
+        <v>0.5838903386380997</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1437162978894342</v>
+        <v>0.1495553062757202</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.5299732020802601</v>
+        <v>0.530541971775481</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.654546573558127</v>
+        <v>0.6456682962077803</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.5417745429337433</v>
+        <v>0.5350643126888758</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1301922223089774</v>
+        <v>0.1274104611077325</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5684655308918449</v>
+        <v>0.5684663043629844</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6340722984973414</v>
+        <v>0.6292416720878744</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5912594257655424</v>
+        <v>0.5943557099395786</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1684478236184703</v>
+        <v>0.1659134140806492</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.7207295449352357</v>
+        <v>0.72727315238076</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.8723073670825831</v>
+        <v>0.8689343417247408</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.7037534194763879</v>
+        <v>0.7029584402190658</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.217076522380423</v>
+        <v>0.2171784312634106</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.6304181956910632</v>
+        <v>0.6249068142062111</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.7403258863531434</v>
+        <v>0.739478438079596</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.6326834196411188</v>
+        <v>0.6266431030618332</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1806264456767221</v>
+        <v>0.1811550863133201</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.6198040266219773</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.5682454480772687</v>
+        <v>0.5682454480772684</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.5778424993034511</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.4462011165549318</v>
+        <v>0.4501499422846004</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.5643854543681078</v>
+        <v>0.5654863083049632</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.4383642014585798</v>
+        <v>0.4390459975737282</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.5211413657606857</v>
+        <v>0.5162163587177329</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.5873047889902403</v>
+        <v>0.5873986144181839</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.7209301913730899</v>
+        <v>0.7207889308013585</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.5577945910195765</v>
+        <v>0.5642690928712775</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.5206527574533442</v>
+        <v>0.5196868448600335</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.5356904444133128</v>
+        <v>0.5293808287522466</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.6636171949192136</v>
+        <v>0.6570699278277546</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.5130401620197159</v>
+        <v>0.5161435279643731</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.5373479652122022</v>
+        <v>0.5330795126417385</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.5662921735467565</v>
+        <v>0.5706063995956488</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.6830564977908914</v>
+        <v>0.6890399386336244</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.5592215411763808</v>
+        <v>0.5561197437799109</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.6304256317744066</v>
+        <v>0.6273878549376773</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.7006207834707605</v>
+        <v>0.7065287918226044</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.818792061666007</v>
+        <v>0.822491127245092</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.6694793418759305</v>
+        <v>0.6791371641802102</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.6172857569221872</v>
+        <v>0.6192705829354398</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.6178596330909247</v>
+        <v>0.6160884414164784</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.7430217878896157</v>
+        <v>0.7362935393357456</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.5979820323835294</v>
+        <v>0.6015285992542964</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.6065805132333151</v>
+        <v>0.6082869877151301</v>
       </c>
     </row>
     <row r="22">
@@ -1513,7 +1513,7 @@
         <v>0.5071479444991521</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.3669913203807338</v>
+        <v>0.3669913203807339</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.4157148607723342</v>
+        <v>0.4148934806279683</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.5349656621502816</v>
+        <v>0.5410522730835149</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4045794983919109</v>
+        <v>0.4113211916039148</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2908284269552631</v>
+        <v>0.2926608065749013</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.5780160964943118</v>
+        <v>0.572946769828404</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.6489010312262208</v>
+        <v>0.6477401297369239</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.5294076091293674</v>
+        <v>0.5270007648215931</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.3695461064166645</v>
+        <v>0.36877403274669</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.5063437498994986</v>
+        <v>0.5066195308042792</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.6020560304889251</v>
+        <v>0.60682993700471</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.4803604155110575</v>
+        <v>0.4780202070110312</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.342961251427835</v>
+        <v>0.3416568608630973</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.4952355664888335</v>
+        <v>0.4972038560266375</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.616281622014238</v>
+        <v>0.6167985497134959</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4866941609289633</v>
+        <v>0.4872521592079704</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3707294607433635</v>
+        <v>0.3695506090417543</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.6509260599856641</v>
+        <v>0.6512318342309555</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.7193258623948156</v>
+        <v>0.7220110670539133</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.6032181634099607</v>
+        <v>0.605084777959392</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.4347407435518142</v>
+        <v>0.4353954454265596</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.565632615948845</v>
+        <v>0.5671964698933623</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.6608501239103121</v>
+        <v>0.6629042595087251</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.5363354914829195</v>
+        <v>0.5354557652465564</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.3948809282401083</v>
+        <v>0.3924584783868809</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.4745667665648606</v>
+        <v>0.4736944741223243</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.4359922164271758</v>
+        <v>0.4376207059493987</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.4754591661984526</v>
+        <v>0.4749887137516563</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.2925794414924624</v>
+        <v>0.2927214420780243</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.599672935961779</v>
+        <v>0.6001576536831358</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.5526724901363301</v>
+        <v>0.5544203570079882</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.5730382590596828</v>
+        <v>0.5776441341142259</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.4162098071412347</v>
+        <v>0.4185321856553982</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.5463720368362989</v>
+        <v>0.5487639764581113</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.5075906723306799</v>
+        <v>0.505624307916824</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.5389623350858938</v>
+        <v>0.5353132575675422</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.3649861481375056</v>
+        <v>0.3637723263339164</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.5505644379146548</v>
+        <v>0.5496797887195609</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.5123709258771693</v>
+        <v>0.515375037949465</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.5462687717698674</v>
+        <v>0.5492251126834566</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.3618608862127777</v>
+        <v>0.3645112597682468</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.6682979885538137</v>
+        <v>0.6724936835858752</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.619543894128872</v>
+        <v>0.6254371523955581</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.6464662890868496</v>
+        <v>0.6453688381167094</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.4803117261896726</v>
+        <v>0.4792501862203101</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.5979266142715222</v>
+        <v>0.5994981354466681</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.5570029443364679</v>
+        <v>0.5571436580610064</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.5902999326816205</v>
+        <v>0.5875196675175769</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.4114160315050921</v>
+        <v>0.4104066486869384</v>
       </c>
     </row>
     <row r="28">
@@ -1785,7 +1785,7 @@
         <v>0.5810683081933377</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.430109066940141</v>
+        <v>0.4301090669401409</v>
       </c>
     </row>
     <row r="29">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.4628732124690057</v>
+        <v>0.4649392775666743</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.5387482455819056</v>
+        <v>0.5369566434017515</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.5044779181213911</v>
+        <v>0.5050323128073535</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.3764715311119881</v>
+        <v>0.3772969754943422</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.6201545164417686</v>
+        <v>0.6227361707410726</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.6767117199727849</v>
+        <v>0.6761099179606505</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.620742961573084</v>
+        <v>0.6216215261893834</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.4485774039721955</v>
+        <v>0.4472022786515296</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.5484772876512933</v>
+        <v>0.5499117436912321</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.6135811387074114</v>
+        <v>0.6125523972633186</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.5685646454208154</v>
+        <v>0.5688085759080134</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.4190281585896568</v>
+        <v>0.4180952934597718</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.4980636854765476</v>
+        <v>0.5010263420372424</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.5723839599355716</v>
+        <v>0.5737535164392629</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.5392396948650187</v>
+        <v>0.5403322207537392</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.4135653995708038</v>
+        <v>0.4135511121450581</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.6527030235810997</v>
+        <v>0.654162740395743</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.7075318429644937</v>
+        <v>0.7087464418306317</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.6529166966170907</v>
+        <v>0.6542580386838661</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.4767751339296522</v>
+        <v>0.4769880657244705</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.5731592627590186</v>
+        <v>0.5736641993934636</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.6371340935000492</v>
+        <v>0.6368616847915314</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.5925045735052676</v>
+        <v>0.5929878569635084</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.4423758749349641</v>
+        <v>0.4422737715511155</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>102044</v>
+        <v>99005</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>161766</v>
+        <v>161674</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>147696</v>
+        <v>150130</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>173247</v>
+        <v>172628</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>119510</v>
+        <v>118599</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>208794</v>
+        <v>209369</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>182850</v>
+        <v>182694</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>195791</v>
+        <v>197563</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>230036</v>
+        <v>229288</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>382799</v>
+        <v>381660</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>339394</v>
+        <v>340466</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>378050</v>
+        <v>376622</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>134389</v>
+        <v>133083</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>195909</v>
+        <v>197048</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>183081</v>
+        <v>185591</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>208497</v>
+        <v>208596</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>153010</v>
+        <v>152926</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>239289</v>
+        <v>238164</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>212780</v>
+        <v>213428</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>224741</v>
+        <v>224981</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>280003</v>
+        <v>274806</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>427896</v>
+        <v>426711</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>388415</v>
+        <v>386890</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>424159</v>
+        <v>424697</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>207124</v>
+        <v>208855</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>245842</v>
+        <v>243584</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>267890</v>
+        <v>264785</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>182692</v>
+        <v>185089</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>307411</v>
+        <v>307486</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>345104</v>
+        <v>345452</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>350940</v>
+        <v>349810</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>225401</v>
+        <v>226136</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>529680</v>
+        <v>530098</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>599860</v>
+        <v>602586</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>629104</v>
+        <v>630181</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>423517</v>
+        <v>423716</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>254608</v>
+        <v>255063</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>290617</v>
+        <v>289991</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>311390</v>
+        <v>310946</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>238987</v>
+        <v>243503</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>351671</v>
+        <v>350110</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>389559</v>
+        <v>390122</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>392795</v>
+        <v>393417</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>268210</v>
+        <v>268248</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>590426</v>
+        <v>593596</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>665072</v>
+        <v>664675</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>692904</v>
+        <v>691729</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>490894</v>
+        <v>491193</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>125431</v>
+        <v>126127</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>174161</v>
+        <v>175544</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>151887</v>
+        <v>151210</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>135760</v>
+        <v>138348</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>210955</v>
+        <v>211780</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>215396</v>
+        <v>216583</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>188433</v>
+        <v>188551</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>166297</v>
+        <v>165172</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>343160</v>
+        <v>348229</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>404297</v>
+        <v>401118</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>350269</v>
+        <v>351152</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>312706</v>
+        <v>309708</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>161285</v>
+        <v>161411</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>208984</v>
+        <v>211195</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>186000</v>
+        <v>184329</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>169463</v>
+        <v>170647</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>245851</v>
+        <v>246634</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>250127</v>
+        <v>251999</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>225101</v>
+        <v>223130</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>196611</v>
+        <v>196270</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>394230</v>
+        <v>396495</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>451798</v>
+        <v>454160</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>400009</v>
+        <v>400246</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>358572</v>
+        <v>356020</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>168443</v>
+        <v>166037</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>198815</v>
+        <v>202418</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>196198</v>
+        <v>196898</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>142399</v>
+        <v>143543</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>241262</v>
+        <v>240690</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>256257</v>
+        <v>258976</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>255735</v>
+        <v>257031</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>197658</v>
+        <v>196138</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>417233</v>
+        <v>418816</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>467862</v>
+        <v>469944</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>462540</v>
+        <v>462637</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>354149</v>
+        <v>349193</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>206016</v>
+        <v>203296</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>239422</v>
+        <v>239237</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>236795</v>
+        <v>234536</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>191295</v>
+        <v>190645</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>276472</v>
+        <v>274962</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>293008</v>
+        <v>293712</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>292983</v>
+        <v>292796</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>235149</v>
+        <v>236881</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>470120</v>
+        <v>471351</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>522951</v>
+        <v>522626</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>517053</v>
+        <v>515311</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>413964</v>
+        <v>413558</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>87791</v>
+        <v>87483</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>104367</v>
+        <v>104212</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>96576</v>
+        <v>97113</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>18457</v>
+        <v>19057</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>122269</v>
+        <v>122721</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>169083</v>
+        <v>167809</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>125146</v>
+        <v>127631</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>32899</v>
+        <v>34236</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>217806</v>
+        <v>218040</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>282901</v>
+        <v>279064</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>232859</v>
+        <v>229975</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>56579</v>
+        <v>55370</v>
       </c>
     </row>
     <row r="23">
@@ -2915,37 +2915,37 @@
         <v>115574</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>134815</v>
+        <v>133788</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>124886</v>
+        <v>125540</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>34644</v>
+        <v>34123</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>149672</v>
+        <v>151031</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>191551</v>
+        <v>190810</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>153831</v>
+        <v>153658</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>49693</v>
+        <v>49716</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>259087</v>
+        <v>256822</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>319976</v>
+        <v>319609</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>271932</v>
+        <v>269336</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>78497</v>
+        <v>78727</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>120836</v>
+        <v>121906</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>154631</v>
+        <v>154933</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>115344</v>
+        <v>115523</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>141077</v>
+        <v>139743</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>163355</v>
+        <v>163381</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>201883</v>
+        <v>201843</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>152342</v>
+        <v>154110</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>137322</v>
+        <v>137067</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>294070</v>
+        <v>290606</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>367652</v>
+        <v>364025</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>275112</v>
+        <v>276776</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>287189</v>
+        <v>284908</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>153358</v>
+        <v>154526</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>187145</v>
+        <v>188784</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>147144</v>
+        <v>146328</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>170661</v>
+        <v>169838</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>194873</v>
+        <v>196517</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>229287</v>
+        <v>230323</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>182845</v>
+        <v>185483</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>162809</v>
+        <v>163333</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>339177</v>
+        <v>338205</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>411643</v>
+        <v>407915</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>320661</v>
+        <v>322562</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>324191</v>
+        <v>325103</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>255676</v>
+        <v>255171</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>354569</v>
+        <v>358603</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>265630</v>
+        <v>270056</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>209305</v>
+        <v>210624</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>368901</v>
+        <v>365666</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>450242</v>
+        <v>449436</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>365976</v>
+        <v>364312</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>285311</v>
+        <v>284715</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>634573</v>
+        <v>634919</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>816774</v>
+        <v>823250</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>647455</v>
+        <v>644300</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>511610</v>
+        <v>509665</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>304583</v>
+        <v>305794</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>408464</v>
+        <v>408807</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>319543</v>
+        <v>319909</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>266809</v>
+        <v>265961</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>415433</v>
+        <v>415629</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>499106</v>
+        <v>500970</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>417001</v>
+        <v>418291</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>335645</v>
+        <v>336150</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>708877</v>
+        <v>710837</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>896536</v>
+        <v>899323</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>722901</v>
+        <v>721715</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>589061</v>
+        <v>585448</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>352980</v>
+        <v>352332</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>339681</v>
+        <v>340949</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>370184</v>
+        <v>369818</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>233499</v>
+        <v>233613</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>469850</v>
+        <v>470230</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>455321</v>
+        <v>456761</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>473425</v>
+        <v>477231</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>346008</v>
+        <v>347939</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>834477</v>
+        <v>838131</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>813643</v>
+        <v>810491</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>864900</v>
+        <v>859044</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>594710</v>
+        <v>592732</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>409507</v>
+        <v>408849</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>399187</v>
+        <v>401528</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>425316</v>
+        <v>427617</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>288791</v>
+        <v>290906</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>523619</v>
+        <v>526906</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>510413</v>
+        <v>515268</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>534089</v>
+        <v>533182</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>399298</v>
+        <v>398416</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>913217</v>
+        <v>915617</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>892848</v>
+        <v>893074</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>947284</v>
+        <v>942822</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>670363</v>
+        <v>668718</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>1516624</v>
+        <v>1523394</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>1846171</v>
+        <v>1840032</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>1712375</v>
+        <v>1714256</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>1329984</v>
+        <v>1332900</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>2095624</v>
+        <v>2104348</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>2407949</v>
+        <v>2405808</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>2200249</v>
+        <v>2203364</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>1676313</v>
+        <v>1671174</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>3650523</v>
+        <v>3660070</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>4285918</v>
+        <v>4278732</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>3945209</v>
+        <v>3946901</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>3046216</v>
+        <v>3039434</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1631927</v>
+        <v>1641634</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1961433</v>
+        <v>1966127</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1830368</v>
+        <v>1834077</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1461028</v>
+        <v>1460978</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>2205612</v>
+        <v>2210545</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>2517617</v>
+        <v>2521939</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>2314291</v>
+        <v>2319045</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>1781687</v>
+        <v>1782482</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>3814800</v>
+        <v>3818160</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>4450438</v>
+        <v>4448535</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>4111325</v>
+        <v>4114679</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>3215947</v>
+        <v>3215205</v>
       </c>
     </row>
     <row r="40">
